--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67814.08132189892</v>
+        <v>-69418.49924823019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12870947.582331</v>
+        <v>12870947.58233099</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660927</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358284</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274266</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.53855908964398</v>
+        <v>17.65528330212883</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014333</v>
+        <v>83.0944345801432</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078953</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727472</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>144.6887712813549</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810813</v>
+        <v>241.9427849810812</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586657</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>38.7448679524795</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>44.92018329092789</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801323</v>
+        <v>29.8567647580131</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599616</v>
+        <v>17.28089669599603</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577307</v>
+        <v>8.062435227577179</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307223</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204917</v>
+        <v>145.1981812496118</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843937</v>
+        <v>98.05485807843924</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520376</v>
+        <v>105.0122714520374</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635319</v>
+        <v>123.9066674635318</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608976</v>
+        <v>77.98466950608963</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.7359910416058</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454958</v>
+        <v>52.04366448454945</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540123999</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082464</v>
+        <v>20.82715732082451</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918145</v>
+        <v>18.64564694918133</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554353</v>
+        <v>17.6327323255434</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219386</v>
+        <v>38.95117859219373</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403474</v>
+        <v>23.31201683403462</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015211</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569116</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371643</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164931</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470695</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232953</v>
+        <v>226.8947259232952</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014333</v>
+        <v>83.09443458014327</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>81.04238838674182</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>241.9427849810813</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.74680299983056</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247962</v>
+        <v>38.74486795247957</v>
       </c>
       <c r="C15" t="n">
-        <v>105.6019973890514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725104</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>29.85676475801317</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>96.1195604435581</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577307</v>
+        <v>8.06243522757725</v>
       </c>
       <c r="H15" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307223</v>
+        <v>16.16737725307217</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204917</v>
+        <v>66.35951750204912</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843937</v>
+        <v>98.05485807843931</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520376</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635319</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608976</v>
+        <v>77.9846695060897</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991664</v>
+        <v>77.89438007991659</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454958</v>
+        <v>52.04366448454952</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540124006</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082464</v>
+        <v>20.82715732082458</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918145</v>
+        <v>18.6456469491814</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554353</v>
+        <v>17.63273232554347</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219386</v>
+        <v>38.95117859219381</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403474</v>
+        <v>23.31201683403469</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015219</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569123</v>
       </c>
       <c r="U16" t="n">
         <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164938</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470702</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E17" t="n">
         <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G17" t="n">
         <v>169.5842971761422</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148209063</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213937</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y17" t="n">
         <v>143.3094695989797</v>
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>48.0667597272983</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.0705583543747</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>8.76651410384568</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754133</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X19" t="n">
-        <v>139.7920863791745</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774048</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.19398614820912</v>
+        <v>8.193986148209035</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306095</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>4.14317621102758</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>1.336395140321686</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845651</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.7920863791745</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.7920863791748</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754133</v>
+        <v>9.209174266754047</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951705</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E23" t="n">
         <v>139.0019010151879</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G23" t="n">
         <v>169.5842971761422</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148209063</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W23" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y23" t="n">
         <v>143.3094695989797</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>38.20901665771675</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>8.766514103845736</v>
+        <v>151.7817115845855</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.7920863791745</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266754133</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113215</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609969</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820254</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651284</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983052</v>
+        <v>30.30344563983062</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784489</v>
+        <v>95.74259691784499</v>
       </c>
       <c r="U26" t="n">
         <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104489</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577268</v>
+        <v>234.100815357727</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187829</v>
+        <v>254.590947318783</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018119</v>
+        <v>51.39303029018129</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862959</v>
+        <v>57.56834562862969</v>
       </c>
       <c r="D27" t="n">
-        <v>32.3049122049526</v>
+        <v>32.3049122049527</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571479</v>
+        <v>42.50492709571489</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369773</v>
+        <v>29.92905903369783</v>
       </c>
       <c r="G27" t="n">
-        <v>20.71059756527887</v>
+        <v>20.71059756527897</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.31273332100582</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T27" t="n">
-        <v>194.1478331994369</v>
+        <v>146.5048735699816</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8431737758271</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012334</v>
+        <v>136.5548298012336</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379132</v>
+        <v>90.63283184379142</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.54254241761821</v>
+        <v>90.54254241761831</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225114</v>
+        <v>64.69182682225124</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894168</v>
+        <v>52.10666773894178</v>
       </c>
       <c r="D28" t="n">
-        <v>33.4753196585262</v>
+        <v>33.4753196585263</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688302</v>
+        <v>31.29380928688312</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324509</v>
+        <v>30.28089466324519</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989543</v>
+        <v>51.59934092989553</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173631</v>
+        <v>35.96017917173641</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338388</v>
+        <v>2.674752405338488</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969434</v>
+        <v>5.881918465969534</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785381</v>
+        <v>87.06647306785391</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833929</v>
+        <v>107.458181683393</v>
       </c>
       <c r="U28" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748661</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X28" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293511</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C29" t="n">
         <v>250.1327384113214</v>
@@ -2798,13 +2798,13 @@
         <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F29" t="n">
         <v>291.7358923820253</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H29" t="n">
         <v>195.7618553651283</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983052</v>
+        <v>30.30344563983054</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784489</v>
+        <v>95.74259691784491</v>
       </c>
       <c r="U29" t="n">
         <v>135.9823018455969</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X29" t="n">
         <v>254.5909473187829</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>118.8902240204133</v>
+        <v>51.3930302901812</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862959</v>
+        <v>57.5683456286296</v>
       </c>
       <c r="D30" t="n">
-        <v>32.3049122049526</v>
+        <v>32.30491220495261</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571479</v>
+        <v>110.0021208259468</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369773</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527887</v>
+        <v>20.71059756527888</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077379</v>
+        <v>28.81553959077381</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975074</v>
+        <v>79.00767983975075</v>
       </c>
       <c r="U30" t="n">
         <v>110.7030204161409</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
-        <v>136.5548298012334</v>
+        <v>136.5548298012335</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379132</v>
+        <v>90.63283184379134</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225114</v>
+        <v>64.69182682225116</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894168</v>
+        <v>52.1066677389417</v>
       </c>
       <c r="D31" t="n">
-        <v>33.4753196585262</v>
+        <v>33.47531965852622</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688302</v>
+        <v>31.29380928688303</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324509</v>
+        <v>30.28089466324511</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989543</v>
+        <v>51.59934092989544</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173631</v>
+        <v>35.96017917173632</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338388</v>
+        <v>2.674752405338403</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969434</v>
+        <v>5.881918465969449</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785381</v>
+        <v>87.06647306785382</v>
       </c>
       <c r="T31" t="n">
         <v>107.4581816833929</v>
@@ -3007,16 +3007,16 @@
         <v>171.110613174866</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X31" t="n">
         <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983046</v>
+        <v>30.30344563983053</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784484</v>
+        <v>95.74259691784491</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455968</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
         <v>271.0977852963674</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.39303029018113</v>
+        <v>51.3930302901812</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862953</v>
+        <v>57.5683456286296</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495254</v>
+        <v>32.30491220495261</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571473</v>
+        <v>42.50492709571481</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369767</v>
+        <v>29.92905903369774</v>
       </c>
       <c r="G33" t="n">
-        <v>88.20779129551153</v>
+        <v>20.71059756527888</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>143.9556929504599</v>
+        <v>28.81553959077381</v>
       </c>
       <c r="T33" t="n">
         <v>194.1478331994369</v>
@@ -3165,16 +3165,16 @@
         <v>110.7030204161409</v>
       </c>
       <c r="V33" t="n">
-        <v>117.6604337897391</v>
+        <v>185.157627519971</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012334</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379127</v>
+        <v>90.63283184379134</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761815</v>
+        <v>90.54254241761822</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225109</v>
+        <v>64.69182682225116</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894162</v>
+        <v>52.1066677389417</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852615</v>
+        <v>33.47531965852622</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688296</v>
+        <v>31.29380928688303</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324504</v>
+        <v>30.28089466324511</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989537</v>
+        <v>51.59934092989544</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173625</v>
+        <v>35.96017917173632</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338332</v>
+        <v>2.674752405338403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969378</v>
+        <v>5.881918465969449</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785375</v>
+        <v>87.06647306785382</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748659</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111307</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199119</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808662</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246456</v>
+        <v>90.94452067246468</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293312</v>
+        <v>31.16496715293323</v>
       </c>
       <c r="V35" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>39.79165031638346</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>87.13092880659056</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>12.8430990970754</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>31.73749510856973</v>
+        <v>31.73749510856985</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.48612903758618</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990729127</v>
+        <v>2.640846990729241</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220225</v>
+        <v>66.29327848220237</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147813</v>
+        <v>32.18015527147824</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424113</v>
+        <v>66.56551028424124</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687279</v>
+        <v>68.23829637427303</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>186.9185576893616</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808662</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246456</v>
+        <v>90.94452067246459</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293312</v>
+        <v>31.16496715293314</v>
       </c>
       <c r="V38" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X38" t="n">
         <v>149.7736126261192</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.53032176334789</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723477208</v>
+        <v>216.5477916206426</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707542</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.71019281646673</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990729127</v>
+        <v>2.640846990729155</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220225</v>
+        <v>66.29327848220228</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147813</v>
+        <v>32.18015527147816</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424113</v>
+        <v>66.56551028424116</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687279</v>
+        <v>68.23829637427339</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.77593622111946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111307</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186577</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199119</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808662</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246456</v>
+        <v>90.94452067246468</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293311</v>
+        <v>31.16496715293322</v>
       </c>
       <c r="V41" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
-        <v>112.4229931562312</v>
+        <v>150.4235499086911</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723477208</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V42" t="n">
-        <v>12.8430990970754</v>
+        <v>12.84309909707551</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>15.77593622111893</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990729127</v>
+        <v>2.640846990729241</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220225</v>
+        <v>66.29327848220237</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147813</v>
+        <v>32.18015527147824</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424113</v>
+        <v>66.56551028424124</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687279</v>
+        <v>5.752167336687393</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.48612903758621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111307</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186582</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683331</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199119</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808662</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246456</v>
+        <v>90.9445206724635</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293311</v>
+        <v>31.16496715293322</v>
       </c>
       <c r="V44" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,10 +4065,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>54.06644259142889</v>
+        <v>105.0793403159816</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723477208</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707551</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856973</v>
+        <v>31.73749510856985</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>62.48612903758564</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.51542706977952</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>26.61154895853584</v>
+        <v>2.640846990729241</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220225</v>
+        <v>66.29327848220237</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147813</v>
+        <v>32.18015527147824</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424113</v>
+        <v>66.56551028424124</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687279</v>
+        <v>5.752167336687393</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>757.8001186938358</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="C11" t="n">
-        <v>757.8001186938358</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="D11" t="n">
-        <v>757.8001186938358</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="E11" t="n">
-        <v>501.0909728606296</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="F11" t="n">
-        <v>501.0909728606296</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739342</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="H11" t="n">
         <v>28.52719148360422</v>
@@ -5039,19 +5039,19 @@
         <v>28.52719148360422</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006738</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634138</v>
+        <v>217.1760266634135</v>
       </c>
       <c r="L11" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838406</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965337</v>
+        <v>676.5957134965333</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893062</v>
+        <v>942.3201157893058</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1412.684261968449</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T11" t="n">
-        <v>1328.750489665274</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U11" t="n">
-        <v>1204.17055076841</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="V11" t="n">
-        <v>1002.186770189878</v>
+        <v>1122.608401801403</v>
       </c>
       <c r="W11" t="n">
-        <v>1002.186770189878</v>
+        <v>976.4581277798328</v>
       </c>
       <c r="X11" t="n">
-        <v>757.8001186938358</v>
+        <v>732.0714762837913</v>
       </c>
       <c r="Y11" t="n">
-        <v>757.8001186938358</v>
+        <v>471.0112510730177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407.6723038417266</v>
+        <v>278.5931970766881</v>
       </c>
       <c r="C12" t="n">
-        <v>233.2192745605996</v>
+        <v>233.2192745605992</v>
       </c>
       <c r="D12" t="n">
-        <v>84.28486489934835</v>
+        <v>84.28486489934798</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893095</v>
+        <v>54.1265166589307</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085402</v>
+        <v>36.6710654508539</v>
       </c>
       <c r="G12" t="n">
         <v>28.52719148360422</v>
@@ -5142,28 +5142,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R12" t="n">
-        <v>1173.080926010103</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S12" t="n">
-        <v>1156.750241916091</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T12" t="n">
-        <v>1089.720426257456</v>
+        <v>934.5386821573769</v>
       </c>
       <c r="U12" t="n">
-        <v>990.6751150671128</v>
+        <v>835.4933709670343</v>
       </c>
       <c r="V12" t="n">
-        <v>884.6021136004082</v>
+        <v>729.4203695003298</v>
       </c>
       <c r="W12" t="n">
-        <v>759.4438636372447</v>
+        <v>604.2621195371664</v>
       </c>
       <c r="X12" t="n">
-        <v>680.67147019675</v>
+        <v>525.4897260966718</v>
       </c>
       <c r="Y12" t="n">
-        <v>575.8876408617946</v>
+        <v>317.7294273317178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.958744436148</v>
+        <v>188.9587444361472</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732792</v>
+        <v>149.1016682732786</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259816</v>
+        <v>128.0641356259811</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086266</v>
+        <v>109.2301488086262</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575433</v>
+        <v>91.41930807575407</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515447</v>
+        <v>52.07468323515434</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360422</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360422</v>
+        <v>38.40086731664388</v>
       </c>
       <c r="J13" t="n">
-        <v>116.9073512249363</v>
+        <v>126.7810270579761</v>
       </c>
       <c r="K13" t="n">
-        <v>259.6404707987733</v>
+        <v>240.7087693594717</v>
       </c>
       <c r="L13" t="n">
-        <v>436.8161551685179</v>
+        <v>417.8844537292164</v>
       </c>
       <c r="M13" t="n">
-        <v>620.0042749846456</v>
+        <v>601.0725735453442</v>
       </c>
       <c r="N13" t="n">
-        <v>809.7022519841648</v>
+        <v>790.7705505448636</v>
       </c>
       <c r="O13" t="n">
-        <v>955.3318186760766</v>
+        <v>955.3318186760747</v>
       </c>
       <c r="P13" t="n">
-        <v>968.8289108744984</v>
+        <v>968.8289108744965</v>
       </c>
       <c r="Q13" t="n">
-        <v>1049.09625252661</v>
+        <v>1049.096252526608</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.09625252661</v>
+        <v>1049.096252526608</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880727</v>
+        <v>973.9262416880709</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792935</v>
+        <v>878.158545379292</v>
       </c>
       <c r="U13" t="n">
-        <v>718.095463725592</v>
+        <v>718.0954637255907</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847433</v>
+        <v>592.490082284742</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128208</v>
+        <v>432.1520190128197</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798416</v>
+        <v>333.2415748798406</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013496</v>
+        <v>241.5281025013487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>796.3297271830922</v>
+        <v>497.5971935006901</v>
       </c>
       <c r="C14" t="n">
-        <v>796.3297271830922</v>
+        <v>257.7137833253165</v>
       </c>
       <c r="D14" t="n">
-        <v>567.1431353413798</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="E14" t="n">
-        <v>310.4339895081737</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="F14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="G14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360445</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006801</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838413</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M14" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569998</v>
@@ -5309,19 +5309,19 @@
         <v>1342.425801877036</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.425801877036</v>
+        <v>1260.564803506589</v>
       </c>
       <c r="V14" t="n">
-        <v>1342.425801877036</v>
+        <v>1260.564803506589</v>
       </c>
       <c r="W14" t="n">
-        <v>1342.425801877036</v>
+        <v>1260.564803506589</v>
       </c>
       <c r="X14" t="n">
-        <v>1098.039150380994</v>
+        <v>1016.178152010547</v>
       </c>
       <c r="Y14" t="n">
-        <v>1053.850460482176</v>
+        <v>755.1179267997737</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>616.3864244931906</v>
+        <v>487.3073177281527</v>
       </c>
       <c r="C15" t="n">
-        <v>509.7177402618256</v>
+        <v>312.8542884470257</v>
       </c>
       <c r="D15" t="n">
-        <v>489.8624373656124</v>
+        <v>163.9198787857745</v>
       </c>
       <c r="E15" t="n">
-        <v>330.6249823601569</v>
+        <v>133.7615305453571</v>
       </c>
       <c r="F15" t="n">
-        <v>184.0904243870419</v>
+        <v>36.67106545085397</v>
       </c>
       <c r="G15" t="n">
-        <v>175.9465504197921</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H15" t="n">
-        <v>77.14002007554096</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
         <v>42.58127776197355</v>
@@ -5382,7 +5382,7 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1210.282618467477</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T15" t="n">
         <v>1143.252802808842</v>
@@ -5391,16 +5391,16 @@
         <v>1044.207491618499</v>
       </c>
       <c r="V15" t="n">
-        <v>938.1344901517945</v>
+        <v>938.1344901517947</v>
       </c>
       <c r="W15" t="n">
-        <v>812.976240188631</v>
+        <v>683.897133423593</v>
       </c>
       <c r="X15" t="n">
-        <v>734.2038467481362</v>
+        <v>605.1247399830984</v>
       </c>
       <c r="Y15" t="n">
-        <v>655.5226547482205</v>
+        <v>526.4435479831826</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.958744436148</v>
+        <v>188.9587444361476</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732792</v>
+        <v>149.1016682732789</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259816</v>
+        <v>128.0641356259814</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086266</v>
+        <v>109.2301488086264</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575434</v>
+        <v>91.41930807575422</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515448</v>
+        <v>52.07468323515441</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>38.40086731664378</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7810270579759</v>
+        <v>116.9073512249364</v>
       </c>
       <c r="K16" t="n">
-        <v>269.5141466318129</v>
+        <v>259.6404707987734</v>
       </c>
       <c r="L16" t="n">
-        <v>446.6898310015574</v>
+        <v>436.816155168518</v>
       </c>
       <c r="M16" t="n">
-        <v>629.8779508176851</v>
+        <v>493.4938424442319</v>
       </c>
       <c r="N16" t="n">
-        <v>790.7705505448656</v>
+        <v>683.1918194437511</v>
       </c>
       <c r="O16" t="n">
-        <v>955.3318186760766</v>
+        <v>847.7530875749623</v>
       </c>
       <c r="P16" t="n">
-        <v>968.8289108744984</v>
+        <v>987.760612313798</v>
       </c>
       <c r="Q16" t="n">
         <v>1049.09625252661</v>
@@ -5461,25 +5461,25 @@
         <v>1049.09625252661</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880727</v>
+        <v>973.926241688072</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792936</v>
+        <v>878.1585453792929</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255921</v>
+        <v>718.0954637255916</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847434</v>
+        <v>592.4900822847428</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128209</v>
+        <v>432.1520190128203</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798416</v>
+        <v>333.2415748798411</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013496</v>
+        <v>241.5281025013492</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646668</v>
+        <v>810.9578074646653</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010973</v>
+        <v>687.3775825010961</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711891</v>
+        <v>574.494175871188</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497871</v>
+        <v>434.0882152497861</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370219</v>
+        <v>268.4846024370208</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J17" t="n">
         <v>83.71911784006778</v>
@@ -5537,28 +5537,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U17" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550916</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519463</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.3337218278553</v>
+        <v>580.3987252681893</v>
       </c>
       <c r="C18" t="n">
-        <v>127.3337218278553</v>
+        <v>531.8464427153627</v>
       </c>
       <c r="D18" t="n">
-        <v>127.3337218278553</v>
+        <v>382.9120330541115</v>
       </c>
       <c r="E18" t="n">
-        <v>127.3337218278553</v>
+        <v>223.674578048656</v>
       </c>
       <c r="F18" t="n">
-        <v>127.3337218278553</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3337218278553</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M18" t="n">
         <v>562.204776565439</v>
@@ -5622,22 +5622,22 @@
         <v>1173.080926010103</v>
       </c>
       <c r="T18" t="n">
-        <v>976.9720035864298</v>
+        <v>1173.080926010103</v>
       </c>
       <c r="U18" t="n">
-        <v>748.8475856310489</v>
+        <v>1173.080926010103</v>
       </c>
       <c r="V18" t="n">
-        <v>549.7864155761249</v>
+        <v>1173.080926010103</v>
       </c>
       <c r="W18" t="n">
-        <v>295.5490588479233</v>
+        <v>1164.225861258744</v>
       </c>
       <c r="X18" t="n">
-        <v>295.5490588479233</v>
+        <v>956.3743610532113</v>
       </c>
       <c r="Y18" t="n">
-        <v>295.5490588479233</v>
+        <v>748.6140622882574</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360423</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K19" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M19" t="n">
         <v>152.0928176220719</v>
@@ -5704,19 +5704,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U19" t="n">
-        <v>223.068393428499</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V19" t="n">
-        <v>213.7661971994544</v>
+        <v>213.7661971994546</v>
       </c>
       <c r="W19" t="n">
-        <v>169.7313191393361</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360423</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360423</v>
+        <v>169.7313191393363</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646657</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010964</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711882</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E20" t="n">
         <v>434.0882152497862</v>
@@ -5741,61 +5741,61 @@
         <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256212995</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634146</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838418</v>
+        <v>419.6428849838405</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965345</v>
+        <v>676.5957134965334</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893069</v>
+        <v>942.320115789306</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P20" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U20" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519451</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.8840826260964</v>
+        <v>472.8720792755957</v>
       </c>
       <c r="C21" t="n">
-        <v>336.699056150311</v>
+        <v>472.8720792755957</v>
       </c>
       <c r="D21" t="n">
-        <v>187.7646464890597</v>
+        <v>471.5221851944627</v>
       </c>
       <c r="E21" t="n">
-        <v>28.52719148360423</v>
+        <v>312.2847301890072</v>
       </c>
       <c r="F21" t="n">
-        <v>28.52719148360423</v>
+        <v>165.7501722158921</v>
       </c>
       <c r="G21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197354</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M21" t="n">
         <v>562.204776565439</v>
@@ -5856,25 +5856,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1226.61330256149</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T21" t="n">
-        <v>1226.61330256149</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U21" t="n">
-        <v>998.4888846061089</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="V21" t="n">
-        <v>763.3367763743661</v>
+        <v>649.942481047023</v>
       </c>
       <c r="W21" t="n">
-        <v>509.0994196461644</v>
+        <v>641.0874162956637</v>
       </c>
       <c r="X21" t="n">
-        <v>509.0994196461644</v>
+        <v>641.0874162956637</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.0994196461644</v>
+        <v>641.0874162956637</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K22" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L22" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M22" t="n">
         <v>152.0928176220719</v>
@@ -5935,25 +5935,25 @@
         <v>266.8282898703962</v>
       </c>
       <c r="S22" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="T22" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="U22" t="n">
-        <v>223.068393428499</v>
+        <v>81.86426577276694</v>
       </c>
       <c r="V22" t="n">
-        <v>213.7661971994544</v>
+        <v>72.56206954372244</v>
       </c>
       <c r="W22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646657</v>
+        <v>810.9578074646648</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010963</v>
+        <v>687.3775825010954</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711881</v>
+        <v>574.4941758711873</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497861</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370208</v>
+        <v>268.4846024370206</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I23" t="n">
         <v>28.52719148360423</v>
@@ -6011,28 +6011,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550913</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519452</v>
+        <v>952.1753555519442</v>
       </c>
     </row>
     <row r="24">
@@ -6051,28 +6051,28 @@
         <v>334.2992044621748</v>
       </c>
       <c r="E24" t="n">
-        <v>175.0617494567193</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M24" t="n">
         <v>562.204776565439</v>
@@ -6093,25 +6093,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S24" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T24" t="n">
-        <v>1042.608545381513</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U24" t="n">
-        <v>1042.608545381513</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V24" t="n">
-        <v>1042.608545381513</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W24" t="n">
-        <v>1033.753480630154</v>
+        <v>1073.29844237504</v>
       </c>
       <c r="X24" t="n">
-        <v>825.9019804246211</v>
+        <v>865.4469421695069</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.9019804246211</v>
+        <v>657.686643404553</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6172,25 +6172,25 @@
         <v>266.8282898703962</v>
       </c>
       <c r="S25" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="T25" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="U25" t="n">
-        <v>223.068393428499</v>
+        <v>81.86426577276701</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994544</v>
+        <v>72.56206954372249</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607696</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
         <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484142</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E26" t="n">
-        <v>855.535097097702</v>
+        <v>855.5350970977013</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198987</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H26" t="n">
         <v>62.73675303640428</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551122</v>
+        <v>74.83913835551112</v>
       </c>
       <c r="J26" t="n">
-        <v>244.019816538064</v>
+        <v>130.0310647119747</v>
       </c>
       <c r="K26" t="n">
-        <v>775.3221715318971</v>
+        <v>377.47672536141</v>
       </c>
       <c r="L26" t="n">
-        <v>1091.777781678413</v>
+        <v>693.9323355079264</v>
       </c>
       <c r="M26" t="n">
-        <v>1793.74900834901</v>
+        <v>1395.903562178523</v>
       </c>
       <c r="N26" t="n">
-        <v>2350.758642184567</v>
+        <v>2171.710634684226</v>
       </c>
       <c r="O26" t="n">
-        <v>2588.339398965259</v>
+        <v>2523.280143291007</v>
       </c>
       <c r="P26" t="n">
-        <v>2870.596829219642</v>
+        <v>2805.53757354539</v>
       </c>
       <c r="Q26" t="n">
-        <v>3062.775604227651</v>
+        <v>2997.716348553398</v>
       </c>
       <c r="R26" t="n">
         <v>3136.837651820214</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.60325963062</v>
+        <v>247.6032596306205</v>
       </c>
       <c r="C27" t="n">
-        <v>189.4534155612972</v>
+        <v>189.4534155612976</v>
       </c>
       <c r="D27" t="n">
-        <v>156.8221911118501</v>
+        <v>156.8221911118504</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181988</v>
+        <v>113.887921318199</v>
       </c>
       <c r="F27" t="n">
-        <v>83.656548556888</v>
+        <v>83.65654855688808</v>
       </c>
       <c r="G27" t="n">
         <v>62.73675303640428</v>
@@ -6330,25 +6330,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1163.537274901153</v>
+        <v>1115.413073255239</v>
       </c>
       <c r="T27" t="n">
-        <v>967.4283524774791</v>
+        <v>967.4283524774802</v>
       </c>
       <c r="U27" t="n">
-        <v>739.3039345220982</v>
+        <v>855.6071197339033</v>
       </c>
       <c r="V27" t="n">
-        <v>620.4550115021597</v>
+        <v>620.4550115021606</v>
       </c>
       <c r="W27" t="n">
-        <v>482.5208399857622</v>
+        <v>482.520839985763</v>
       </c>
       <c r="X27" t="n">
-        <v>390.9725249920336</v>
+        <v>390.9725249920343</v>
       </c>
       <c r="Y27" t="n">
-        <v>299.5154114388839</v>
+        <v>299.5154114388845</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147539</v>
+        <v>302.5256054147546</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986512</v>
+        <v>249.8926076986518</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981197</v>
+        <v>216.0791534981202</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275308</v>
+        <v>184.4692451275312</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414246</v>
+        <v>153.8824828414249</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475908</v>
+        <v>101.761936447591</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280669</v>
+        <v>65.43852314280679</v>
       </c>
       <c r="I28" t="n">
         <v>62.73675303640428</v>
       </c>
       <c r="J28" t="n">
-        <v>171.895110972908</v>
+        <v>138.5952320634117</v>
       </c>
       <c r="K28" t="n">
-        <v>407.7828785136264</v>
+        <v>273.0846290144152</v>
       </c>
       <c r="L28" t="n">
-        <v>572.4368821690464</v>
+        <v>598.5885871959739</v>
       </c>
       <c r="M28" t="n">
-        <v>743.1033212708495</v>
+        <v>769.2550262977769</v>
       </c>
       <c r="N28" t="n">
-        <v>920.2796175560442</v>
+        <v>946.4313225829715</v>
       </c>
       <c r="O28" t="n">
-        <v>1010.890783958623</v>
+        <v>1145.893407875992</v>
       </c>
       <c r="P28" t="n">
-        <v>1138.376627983134</v>
+        <v>1203.066156777109</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714896</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931089</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539317</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.380935677304</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703676</v>
+        <v>895.5419324703687</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762848</v>
+        <v>757.160629476286</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511284</v>
+        <v>584.0466446511294</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649153</v>
+        <v>472.3602789649162</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331894</v>
+        <v>367.8708850331902</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607696</v>
       </c>
       <c r="C29" t="n">
         <v>1366.982677879088</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977012</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198988</v>
       </c>
       <c r="G29" t="n">
         <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I29" t="n">
-        <v>74.8391383555112</v>
+        <v>74.83913835551121</v>
       </c>
       <c r="J29" t="n">
         <v>244.019816538064</v>
       </c>
       <c r="K29" t="n">
-        <v>812.3694356329527</v>
+        <v>698.3806838068633</v>
       </c>
       <c r="L29" t="n">
         <v>1014.83629395338</v>
       </c>
       <c r="M29" t="n">
-        <v>1385.777874292162</v>
+        <v>1385.003773532685</v>
       </c>
       <c r="N29" t="n">
-        <v>1765.491028411024</v>
+        <v>1764.716927651547</v>
       </c>
       <c r="O29" t="n">
-        <v>2350.609712552604</v>
+        <v>2379.289863882356</v>
       </c>
       <c r="P29" t="n">
-        <v>2944.658876812204</v>
+        <v>2870.596829219642</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.837651820213</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331607</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.60325963062</v>
+        <v>432.0854284083152</v>
       </c>
       <c r="C30" t="n">
-        <v>189.4534155612972</v>
+        <v>373.9355843389923</v>
       </c>
       <c r="D30" t="n">
-        <v>156.8221911118501</v>
+        <v>341.3043598895453</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8879213181988</v>
+        <v>230.191106530003</v>
       </c>
       <c r="F30" t="n">
-        <v>83.65654855688797</v>
+        <v>83.656548556888</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477358</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L30" t="n">
         <v>362.6764416676407</v>
@@ -6576,16 +6576,16 @@
         <v>1040.089288511597</v>
       </c>
       <c r="V30" t="n">
-        <v>804.9371802798548</v>
+        <v>921.240365491659</v>
       </c>
       <c r="W30" t="n">
-        <v>667.0030087634574</v>
+        <v>783.3061939752615</v>
       </c>
       <c r="X30" t="n">
-        <v>575.4546937697288</v>
+        <v>691.7578789815329</v>
       </c>
       <c r="Y30" t="n">
-        <v>367.6943950047749</v>
+        <v>483.997580216579</v>
       </c>
     </row>
     <row r="31">
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147538</v>
+        <v>302.525605414754</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986511</v>
+        <v>249.8926076986513</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981196</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275307</v>
+        <v>184.4692451275308</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414246</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280666</v>
+        <v>65.4385231428067</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J31" t="n">
-        <v>90.79894410378822</v>
+        <v>138.5952320634118</v>
       </c>
       <c r="K31" t="n">
-        <v>326.6867116445067</v>
+        <v>268.8066709229242</v>
       </c>
       <c r="L31" t="n">
-        <v>377.3519634738374</v>
+        <v>433.4606745783442</v>
       </c>
       <c r="M31" t="n">
-        <v>548.0184025756405</v>
+        <v>490.1383618540581</v>
       </c>
       <c r="N31" t="n">
-        <v>725.1946988608352</v>
+        <v>696.2186388903732</v>
       </c>
       <c r="O31" t="n">
-        <v>877.2342862777216</v>
+        <v>1009.669476009483</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983133</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q31" t="n">
         <v>1270.811817714895</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S31" t="n">
         <v>1176.924553539316</v>
@@ -6652,19 +6652,19 @@
         <v>1068.380935677303</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703678</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762847</v>
+        <v>757.1606294762851</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511283</v>
+        <v>584.0466446511286</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649152</v>
+        <v>472.3602789649154</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331893</v>
+        <v>367.8708850331896</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607696</v>
       </c>
       <c r="C32" t="n">
         <v>1366.982677879088</v>
@@ -6683,67 +6683,67 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977015</v>
+        <v>855.5350970977021</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198987</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640425</v>
+        <v>74.83913835551121</v>
       </c>
       <c r="J32" t="n">
-        <v>231.9174312189571</v>
+        <v>130.0310647119748</v>
       </c>
       <c r="K32" t="n">
-        <v>479.3630918683926</v>
+        <v>377.4767253614102</v>
       </c>
       <c r="L32" t="n">
-        <v>795.8187020149091</v>
+        <v>1080.689417414113</v>
       </c>
       <c r="M32" t="n">
-        <v>1572.186020840412</v>
+        <v>1857.056736239616</v>
       </c>
       <c r="N32" t="n">
-        <v>2348.553339665914</v>
+        <v>2236.769890358478</v>
       </c>
       <c r="O32" t="n">
-        <v>2700.122848272696</v>
+        <v>2588.339398965259</v>
       </c>
       <c r="P32" t="n">
-        <v>2944.658876812204</v>
+        <v>2870.596829219642</v>
       </c>
       <c r="Q32" t="n">
-        <v>3136.837651820213</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820213</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331607</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460014</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>315.7822431965113</v>
+        <v>247.6032596306201</v>
       </c>
       <c r="C33" t="n">
-        <v>257.6323991271886</v>
+        <v>189.4534155612973</v>
       </c>
       <c r="D33" t="n">
-        <v>225.0011746777416</v>
+        <v>156.8221911118502</v>
       </c>
       <c r="E33" t="n">
-        <v>182.0669048840903</v>
+        <v>113.8879213181988</v>
       </c>
       <c r="F33" t="n">
-        <v>151.8355321227795</v>
+        <v>83.656548556888</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477358</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
         <v>362.6764416676407</v>
@@ -6804,25 +6804,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1115.413073255239</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>919.3041508315657</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U33" t="n">
-        <v>807.4829180879891</v>
+        <v>923.7861032997932</v>
       </c>
       <c r="V33" t="n">
-        <v>688.6339950680507</v>
+        <v>736.7581967139639</v>
       </c>
       <c r="W33" t="n">
-        <v>550.6998235516534</v>
+        <v>482.5208399857623</v>
       </c>
       <c r="X33" t="n">
-        <v>459.1515085579248</v>
+        <v>390.9725249920336</v>
       </c>
       <c r="Y33" t="n">
-        <v>367.6943950047751</v>
+        <v>299.5154114388839</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147534</v>
+        <v>302.525605414754</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986508</v>
+        <v>249.8926076986513</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981194</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275305</v>
+        <v>184.4692451275308</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414244</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475907</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H34" t="n">
-        <v>65.4385231428066</v>
+        <v>65.4385231428067</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640425</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J34" t="n">
-        <v>112.4204062783107</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="K34" t="n">
-        <v>348.3081738190292</v>
+        <v>78.95944006982742</v>
       </c>
       <c r="L34" t="n">
-        <v>398.9734256483599</v>
+        <v>290.474646425297</v>
       </c>
       <c r="M34" t="n">
-        <v>746.3644290505142</v>
+        <v>624.3428044574744</v>
       </c>
       <c r="N34" t="n">
-        <v>923.540725335709</v>
+        <v>857.6298885925969</v>
       </c>
       <c r="O34" t="n">
-        <v>1075.580312752596</v>
+        <v>1009.669476009483</v>
       </c>
       <c r="P34" t="n">
-        <v>1203.066156777107</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714894</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703668</v>
+        <v>895.5419324703678</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762842</v>
+        <v>757.1606294762851</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511277</v>
+        <v>584.0466446511286</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649147</v>
+        <v>472.3602789649154</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331889</v>
+        <v>367.8708850331896</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291585</v>
+        <v>955.8582442291597</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497063</v>
+        <v>809.0750081497073</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039153</v>
+        <v>672.9885904039162</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J35" t="n">
-        <v>294.0688711375532</v>
+        <v>307.1594010810899</v>
       </c>
       <c r="K35" t="n">
-        <v>427.5257799608993</v>
+        <v>440.616309904436</v>
       </c>
       <c r="L35" t="n">
-        <v>629.9926382813264</v>
+        <v>643.0831682248631</v>
       </c>
       <c r="M35" t="n">
-        <v>886.9454667940192</v>
+        <v>900.0359967375559</v>
       </c>
       <c r="N35" t="n">
-        <v>1152.669869086792</v>
+        <v>1165.760399030328</v>
       </c>
       <c r="O35" t="n">
-        <v>1390.250625867483</v>
+        <v>1403.34115581102</v>
       </c>
       <c r="P35" t="n">
-        <v>1558.519304295777</v>
+        <v>1571.609834239314</v>
       </c>
       <c r="Q35" t="n">
-        <v>1636.709327477697</v>
+        <v>1649.799857421233</v>
       </c>
       <c r="R35" t="n">
-        <v>1636.709327477697</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640002</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839061</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947295</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>663.3690134737489</v>
+        <v>529.109570370787</v>
       </c>
       <c r="C36" t="n">
-        <v>488.9159841926219</v>
+        <v>529.109570370787</v>
       </c>
       <c r="D36" t="n">
-        <v>339.9815745313706</v>
+        <v>380.1751607095357</v>
       </c>
       <c r="E36" t="n">
-        <v>180.7441195259151</v>
+        <v>220.9377057040802</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155280003</v>
+        <v>74.40314773096517</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280003</v>
+        <v>74.40314773096517</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116936</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L36" t="n">
         <v>334.1492501840365</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346349</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N36" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O36" t="n">
         <v>1032.665143948265</v>
@@ -7035,31 +7035,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q36" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R36" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S36" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="T36" t="n">
-        <v>1144.284633432109</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U36" t="n">
-        <v>916.1602154767281</v>
+        <v>1004.171254675305</v>
       </c>
       <c r="V36" t="n">
-        <v>903.1873881059449</v>
+        <v>769.019146443562</v>
       </c>
       <c r="W36" t="n">
-        <v>871.1293122387028</v>
+        <v>736.9610705763198</v>
       </c>
       <c r="X36" t="n">
-        <v>871.1293122387028</v>
+        <v>529.109570370787</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.3690134737489</v>
+        <v>529.109570370787</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L37" t="n">
         <v>101.0975004155539</v>
@@ -7117,28 +7117,28 @@
         <v>272.5106599395921</v>
       </c>
       <c r="R37" t="n">
-        <v>209.3933578814242</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3933578814242</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T37" t="n">
-        <v>206.7258356685665</v>
+        <v>269.8431377267343</v>
       </c>
       <c r="U37" t="n">
-        <v>139.7629281107864</v>
+        <v>202.8802301689541</v>
       </c>
       <c r="V37" t="n">
-        <v>107.257720765859</v>
+        <v>170.3750228240266</v>
       </c>
       <c r="W37" t="n">
-        <v>40.01983158985789</v>
+        <v>103.1371336480254</v>
       </c>
       <c r="X37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291586</v>
+        <v>955.8582442291595</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497065</v>
+        <v>809.0750081497072</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039155</v>
+        <v>672.9885904039161</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666308</v>
+        <v>509.3796186666313</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379828</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I38" t="n">
-        <v>150.0811082176441</v>
+        <v>52.06174544572066</v>
       </c>
       <c r="J38" t="n">
-        <v>205.2730345741076</v>
+        <v>107.2536718021842</v>
       </c>
       <c r="K38" t="n">
-        <v>338.7299433974538</v>
+        <v>240.7105806255304</v>
       </c>
       <c r="L38" t="n">
-        <v>541.1968017178808</v>
+        <v>443.1774389459575</v>
       </c>
       <c r="M38" t="n">
-        <v>798.1496302305736</v>
+        <v>700.1302674586502</v>
       </c>
       <c r="N38" t="n">
-        <v>1063.874032523346</v>
+        <v>965.8546697514228</v>
       </c>
       <c r="O38" t="n">
-        <v>1301.454789304038</v>
+        <v>1203.435426532114</v>
       </c>
       <c r="P38" t="n">
-        <v>1469.723467732332</v>
+        <v>1371.704104960408</v>
       </c>
       <c r="Q38" t="n">
-        <v>1547.913490914251</v>
+        <v>1449.894128142328</v>
       </c>
       <c r="R38" t="n">
-        <v>1636.709327477697</v>
+        <v>1627.725337080628</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640002</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640002</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.3814262195068</v>
+        <v>171.432542285088</v>
       </c>
       <c r="C39" t="n">
-        <v>342.3814262195068</v>
+        <v>171.432542285088</v>
       </c>
       <c r="D39" t="n">
-        <v>193.4470165582555</v>
+        <v>171.432542285088</v>
       </c>
       <c r="E39" t="n">
-        <v>34.20956155280003</v>
+        <v>171.432542285088</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155280003</v>
+        <v>171.432542285088</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116936</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L39" t="n">
         <v>334.1492501840365</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8871466346349</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N39" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O39" t="n">
         <v>1032.665143948265</v>
@@ -7272,31 +7272,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q39" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R39" t="n">
-        <v>1179.234741556597</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S39" t="n">
-        <v>1033.824950697546</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T39" t="n">
-        <v>837.7160282738726</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="U39" t="n">
-        <v>831.7708911794512</v>
+        <v>814.6183621690948</v>
       </c>
       <c r="V39" t="n">
-        <v>596.6187829477085</v>
+        <v>801.6455347983115</v>
       </c>
       <c r="W39" t="n">
-        <v>342.3814262195068</v>
+        <v>547.4081780701099</v>
       </c>
       <c r="X39" t="n">
-        <v>342.3814262195068</v>
+        <v>547.4081780701099</v>
       </c>
       <c r="Y39" t="n">
-        <v>342.3814262195068</v>
+        <v>339.647879305156</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622317</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L40" t="n">
         <v>101.0975004155539</v>
@@ -7351,31 +7351,31 @@
         <v>272.5106599395921</v>
       </c>
       <c r="Q40" t="n">
-        <v>225.3286469936661</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R40" t="n">
-        <v>225.3286469936661</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S40" t="n">
-        <v>225.3286469936661</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6611247808084</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U40" t="n">
-        <v>155.6982172230283</v>
+        <v>202.8802301689543</v>
       </c>
       <c r="V40" t="n">
-        <v>123.1930098781009</v>
+        <v>170.3750228240269</v>
       </c>
       <c r="W40" t="n">
-        <v>55.95512070209978</v>
+        <v>103.1371336480257</v>
       </c>
       <c r="X40" t="n">
-        <v>50.14485066504191</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155280006</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291591</v>
+        <v>955.8582442291593</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497069</v>
+        <v>809.0750081497068</v>
       </c>
       <c r="D41" t="n">
-        <v>672.988590403916</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666312</v>
+        <v>509.3796186666311</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379832</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I41" t="n">
-        <v>150.0811082176441</v>
+        <v>150.081108217644</v>
       </c>
       <c r="J41" t="n">
-        <v>205.2730345741077</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K41" t="n">
-        <v>338.7299433974538</v>
+        <v>338.7299433974537</v>
       </c>
       <c r="L41" t="n">
-        <v>541.1968017178809</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M41" t="n">
         <v>798.1496302305736</v>
@@ -7433,10 +7433,10 @@
         <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1627.725337080627</v>
+        <v>1636.709327477698</v>
       </c>
       <c r="S41" t="n">
-        <v>1701.494087242932</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T41" t="n">
         <v>1710.478077640003</v>
@@ -7454,7 +7454,7 @@
         <v>1288.238854547174</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>438.7881048756217</v>
+        <v>231.7567998059881</v>
       </c>
       <c r="C42" t="n">
-        <v>438.7881048756217</v>
+        <v>231.7567998059881</v>
       </c>
       <c r="D42" t="n">
-        <v>438.7881048756217</v>
+        <v>82.82239014473679</v>
       </c>
       <c r="E42" t="n">
-        <v>279.5506498701662</v>
+        <v>82.82239014473679</v>
       </c>
       <c r="F42" t="n">
-        <v>133.0160918970512</v>
+        <v>82.82239014473679</v>
       </c>
       <c r="G42" t="n">
-        <v>133.0160918970512</v>
+        <v>82.82239014473679</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155280005</v>
+        <v>82.82239014473679</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116938</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L42" t="n">
         <v>334.1492501840365</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8871466346349</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N42" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O42" t="n">
         <v>1032.665143948265</v>
@@ -7509,31 +7509,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q42" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R42" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S42" t="n">
-        <v>1033.353505220249</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T42" t="n">
-        <v>919.7949262745607</v>
+        <v>934.9429020658866</v>
       </c>
       <c r="U42" t="n">
-        <v>913.8497891801393</v>
+        <v>706.8184841105058</v>
       </c>
       <c r="V42" t="n">
-        <v>900.8769618093561</v>
+        <v>693.8456567397225</v>
       </c>
       <c r="W42" t="n">
-        <v>646.6396050811545</v>
+        <v>439.6083000115209</v>
       </c>
       <c r="X42" t="n">
-        <v>438.7881048756217</v>
+        <v>231.7567998059881</v>
       </c>
       <c r="Y42" t="n">
-        <v>438.7881048756217</v>
+        <v>231.7567998059881</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622319</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L43" t="n">
         <v>101.0975004155539</v>
@@ -7588,31 +7588,31 @@
         <v>272.5106599395921</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.5106599395921</v>
+        <v>225.3286469936662</v>
       </c>
       <c r="R43" t="n">
-        <v>272.5106599395921</v>
+        <v>225.3286469936662</v>
       </c>
       <c r="S43" t="n">
-        <v>272.5106599395921</v>
+        <v>209.3933578814248</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267344</v>
+        <v>206.725835668567</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689544</v>
+        <v>139.7629281107868</v>
       </c>
       <c r="V43" t="n">
-        <v>170.375022824027</v>
+        <v>107.2577207658593</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480258</v>
+        <v>40.01983158985804</v>
       </c>
       <c r="X43" t="n">
-        <v>97.32686361096795</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291591</v>
+        <v>955.8582442291588</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497064</v>
+        <v>809.0750081497065</v>
       </c>
       <c r="D44" t="n">
         <v>672.9885904039154</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666307</v>
+        <v>509.3796186666304</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379826</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472076</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I44" t="n">
-        <v>150.0811082176441</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J44" t="n">
-        <v>205.2730345741077</v>
+        <v>89.40148790926361</v>
       </c>
       <c r="K44" t="n">
-        <v>338.7299433974538</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L44" t="n">
-        <v>541.1968017178809</v>
+        <v>425.3252550530369</v>
       </c>
       <c r="M44" t="n">
-        <v>798.1496302305736</v>
+        <v>682.2780835657296</v>
       </c>
       <c r="N44" t="n">
-        <v>1063.874032523346</v>
+        <v>948.0024858585022</v>
       </c>
       <c r="O44" t="n">
-        <v>1301.454789304038</v>
+        <v>1185.583242639194</v>
       </c>
       <c r="P44" t="n">
-        <v>1469.723467732332</v>
+        <v>1571.609834239314</v>
       </c>
       <c r="Q44" t="n">
-        <v>1547.913490914251</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R44" t="n">
         <v>1710.478077640003</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>488.9159841926219</v>
+        <v>654.0574362329218</v>
       </c>
       <c r="C45" t="n">
-        <v>488.9159841926219</v>
+        <v>479.6044069517948</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9815745313706</v>
+        <v>330.6699972905435</v>
       </c>
       <c r="E45" t="n">
-        <v>180.7441195259151</v>
+        <v>171.432542285088</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155280005</v>
+        <v>171.432542285088</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116938</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L45" t="n">
         <v>334.1492501840365</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8871466346349</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N45" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O45" t="n">
         <v>1032.665143948265</v>
@@ -7746,31 +7746,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q45" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R45" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S45" t="n">
-        <v>1232.295672630685</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T45" t="n">
-        <v>1177.683104356515</v>
+        <v>927.2127574263282</v>
       </c>
       <c r="U45" t="n">
-        <v>1171.737967262093</v>
+        <v>699.0883394709473</v>
       </c>
       <c r="V45" t="n">
-        <v>936.5858590303507</v>
+        <v>686.115512100164</v>
       </c>
       <c r="W45" t="n">
-        <v>904.5277831631086</v>
+        <v>654.0574362329218</v>
       </c>
       <c r="X45" t="n">
-        <v>696.6762829575757</v>
+        <v>654.0574362329218</v>
       </c>
       <c r="Y45" t="n">
-        <v>488.9159841926219</v>
+        <v>654.0574362329218</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="C46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="D46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="E46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="F46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="G46" t="n">
-        <v>73.11403334045613</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="H46" t="n">
-        <v>73.11403334045613</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="I46" t="n">
-        <v>73.11403334045613</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280006</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622319</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L46" t="n">
         <v>101.0975004155539</v>
@@ -7834,22 +7834,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T46" t="n">
-        <v>245.6303074562226</v>
+        <v>269.8431377267343</v>
       </c>
       <c r="U46" t="n">
-        <v>178.6673998984425</v>
+        <v>202.8802301689541</v>
       </c>
       <c r="V46" t="n">
-        <v>146.1621925535151</v>
+        <v>170.3750228240266</v>
       </c>
       <c r="W46" t="n">
-        <v>78.92430337751399</v>
+        <v>103.1371336480254</v>
       </c>
       <c r="X46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.11403334045613</v>
+        <v>97.32686361096738</v>
       </c>
     </row>
   </sheetData>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>179.0873532491868</v>
+        <v>400.0948670574152</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>4.321169789384925</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>235.9082581159595</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>211.1611465483867</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.33000427628926</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>29.19594015264695</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>390.6637190971585</v>
       </c>
       <c r="M32" t="n">
-        <v>409.5209479663844</v>
+        <v>428.790416427772</v>
       </c>
       <c r="N32" t="n">
-        <v>400.6607724309502</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>77.03772738506507</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.33000427628926</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.039082185092049</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660929</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>237.4845760736197</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232953</v>
+        <v>226.8947259232951</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.1420543748739</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443237</v>
+        <v>279.0877300443236</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.11672421248498</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200253</v>
+        <v>76.76388173867026</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358284</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212896</v>
+        <v>17.65528330212889</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>42.29175112115337</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727472</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W14" t="n">
         <v>221.4526530200253</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.7028199588353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.435296326235402e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.170003234441556e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861224.2668438111</v>
+        <v>861224.2668438113</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1005776.168083747</v>
+        <v>1005776.168083748</v>
       </c>
     </row>
     <row r="8">
@@ -26314,16 +26314,16 @@
         <v>430120.0778264451</v>
       </c>
       <c r="C2" t="n">
-        <v>430120.0778264449</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="D2" t="n">
-        <v>430120.077826445</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="E2" t="n">
-        <v>369096.1143616335</v>
+        <v>369096.1143616333</v>
       </c>
       <c r="F2" t="n">
-        <v>369096.1143616335</v>
+        <v>369096.1143616333</v>
       </c>
       <c r="G2" t="n">
         <v>431046.9291787487</v>
@@ -26335,22 +26335,22 @@
         <v>431046.9291787487</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="K2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787482</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.929178749</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787488</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787488</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>92112.12268774892</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774897</v>
+        <v>92112.12268774892</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413093</v>
+        <v>83853.86775413092</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161674.3217732036</v>
+        <v>161674.3217732037</v>
       </c>
       <c r="F4" t="n">
         <v>161674.3217732036</v>
       </c>
       <c r="G4" t="n">
-        <v>228781.8774821127</v>
+        <v>228781.8774821128</v>
       </c>
       <c r="H4" t="n">
-        <v>228781.8774821127</v>
+        <v>228781.8774821128</v>
       </c>
       <c r="I4" t="n">
         <v>228781.8774821127</v>
@@ -26442,7 +26442,7 @@
         <v>231159.1105944614</v>
       </c>
       <c r="K4" t="n">
-        <v>231159.1105944614</v>
+        <v>231159.1105944615</v>
       </c>
       <c r="L4" t="n">
         <v>231159.1105944614</v>
@@ -26451,13 +26451,13 @@
         <v>229069.74047253</v>
       </c>
       <c r="N4" t="n">
+        <v>229069.7404725301</v>
+      </c>
+      <c r="O4" t="n">
         <v>229069.74047253</v>
       </c>
-      <c r="O4" t="n">
-        <v>229069.7404725301</v>
-      </c>
       <c r="P4" t="n">
-        <v>229069.7404725301</v>
+        <v>229069.74047253</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
       </c>
       <c r="H5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.73576172448</v>
       </c>
       <c r="I5" t="n">
         <v>57232.73576172449</v>
@@ -26494,16 +26494,16 @@
         <v>72488.96662948883</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948882</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222714</v>
+        <v>59620.18961222717</v>
       </c>
       <c r="O5" t="n">
         <v>59620.18961222716</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71123.48210528612</v>
+        <v>-71127.89568315423</v>
       </c>
       <c r="C6" t="n">
-        <v>-71123.4821052863</v>
+        <v>-71127.89568315417</v>
       </c>
       <c r="D6" t="n">
-        <v>-71123.48210528618</v>
+        <v>-71127.89568315411</v>
       </c>
       <c r="E6" t="n">
-        <v>-606397.7607429323</v>
+        <v>-606692.7646230141</v>
       </c>
       <c r="F6" t="n">
-        <v>159868.7743795009</v>
+        <v>159573.7704994192</v>
       </c>
       <c r="G6" t="n">
-        <v>52920.19324716255</v>
+        <v>52920.19324716258</v>
       </c>
       <c r="H6" t="n">
-        <v>145032.3159349114</v>
+        <v>145032.3159349113</v>
       </c>
       <c r="I6" t="n">
         <v>145032.3159349115</v>
       </c>
       <c r="J6" t="n">
-        <v>15514.77041828787</v>
+        <v>15514.77041828804</v>
       </c>
       <c r="K6" t="n">
-        <v>127398.8519547981</v>
+        <v>127398.8519547979</v>
       </c>
       <c r="L6" t="n">
-        <v>35286.72926704916</v>
+        <v>35286.72926704932</v>
       </c>
       <c r="M6" t="n">
-        <v>58503.13133986076</v>
+        <v>58503.13133986089</v>
       </c>
       <c r="N6" t="n">
-        <v>142356.9990939916</v>
+        <v>142356.9990939915</v>
       </c>
       <c r="O6" t="n">
-        <v>142356.9990939916</v>
+        <v>142356.9990939918</v>
       </c>
       <c r="P6" t="n">
         <v>142356.9990939916</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G2" t="n">
         <v>242.9284690570739</v>
       </c>
       <c r="H2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I2" t="n">
         <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="3">
@@ -26799,37 +26799,37 @@
         <v>356.5898935450527</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="J4" t="n">
         <v>784.2094129550535</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550532</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550532</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100004</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100004</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100006</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100006</v>
+        <v>427.6195194100007</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926637</v>
+        <v>104.8173346926636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100006</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973877</v>
+        <v>48.94965194982512</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y12" t="n">
-        <v>101.9467047356985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973877</v>
+        <v>98.69197501825502</v>
       </c>
       <c r="L13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O13" t="n">
-        <v>108.6653849506208</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="R13" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C15" t="n">
-        <v>67.10650159926436</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>48.94965194982578</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973877</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>98.69197501825769</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973877</v>
+        <v>108.6653849506198</v>
       </c>
       <c r="R16" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="17">
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>124.6417392610174</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,22 +28694,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>35.73002879505054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>27.45473471945309</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28785,7 +28785,7 @@
         <v>242.9284690570739</v>
       </c>
       <c r="X19" t="n">
-        <v>85.9175690098626</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="21">
@@ -28880,19 +28880,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>168.5653227772881</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1086704243171</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>97.81846504080859</v>
@@ -28928,19 +28928,19 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -28962,7 +28962,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>8.823386639037807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -29007,19 +29007,19 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836513</v>
       </c>
       <c r="T22" t="n">
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29165,10 +29165,10 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>155.9388165417201</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
         <v>225.8431737758271</v>
@@ -29177,13 +29177,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>242.9284690570739</v>
+        <v>99.9132715763341</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>8.823386639037807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29244,7 +29244,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836521</v>
       </c>
       <c r="T25" t="n">
         <v>222.598335043079</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>77.71867446973107</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29402,25 +29402,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S27" t="n">
-        <v>47.64295962945411</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>47.64295962945528</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O28" t="n">
-        <v>53.09124324422368</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596862</v>
+        <v>44.11682495221732</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596862</v>
+        <v>114.3582334006187</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>108.2825906480181</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.64295962945403</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596862</v>
+        <v>47.64295962945414</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29639,22 +29639,22 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J31" t="n">
-        <v>66.86107461259161</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M31" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596862</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I32" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596862</v>
+        <v>95.8706848982989</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G33" t="n">
-        <v>47.64295962945349</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29876,25 +29876,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596862</v>
+        <v>47.64295962945425</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J34" t="n">
-        <v>84.66185320984545</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596862</v>
+        <v>101.4807135920326</v>
       </c>
       <c r="N34" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596862</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7347305336258</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628926</v>
+        <v>92.54639803558126</v>
       </c>
       <c r="S35" t="n">
-        <v>219.9574880523499</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T35" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
-        <v>97.81846504080859</v>
+        <v>58.02681472442513</v>
       </c>
       <c r="I36" t="n">
         <v>48.12670030601736</v>
@@ -30116,22 +30116,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>107.0169043928463</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30189,25 +30189,25 @@
         <v>46.71019281646673</v>
       </c>
       <c r="R37" t="n">
-        <v>58.53594278806941</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523499</v>
+        <v>157.4713590147641</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I38" t="n">
-        <v>219.9574880523499</v>
+        <v>120.9480307069727</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>130.0227684817899</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="S38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T38" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>97.81846504080859</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4667310225245345</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523499</v>
+        <v>9.295382155184456</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R40" t="n">
         <v>121.0220718256556</v>
@@ -30432,22 +30432,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523499</v>
+        <v>157.4713590147638</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.8087171309753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>120.9480307069721</v>
+        <v>130.0227684817915</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9574880523499</v>
+        <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="42">
@@ -30542,22 +30542,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>81.72484004320572</v>
+        <v>43.72428329074577</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.71019281646673</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
-        <v>202.20662642754</v>
+        <v>186.430690206421</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.0985243145086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I44" t="n">
-        <v>219.9574880523499</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>61.2911315341108</v>
       </c>
       <c r="R44" t="n">
-        <v>204.5366575346241</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S44" t="n">
         <v>145.4435989995167</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,10 +30785,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>97.81846504080859</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.081390608008</v>
+        <v>89.06849288345529</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W45" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30867,7 +30867,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7394942895816</v>
+        <v>104.2533652519959</v>
       </c>
       <c r="H46" t="n">
         <v>151.1003325314225</v>
@@ -30876,7 +30876,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30906,19 +30906,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>195.9867860845432</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35562,31 +35562,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.973409932363303</v>
       </c>
       <c r="J13" t="n">
-        <v>89.2728886276082</v>
+        <v>89.27288862760832</v>
       </c>
       <c r="K13" t="n">
-        <v>144.174868256401</v>
+        <v>115.0785275772683</v>
       </c>
       <c r="L13" t="n">
-        <v>178.9653377472167</v>
+        <v>178.9653377472168</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647755</v>
+        <v>185.0385048647756</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813327</v>
       </c>
       <c r="O13" t="n">
-        <v>147.1005724160725</v>
+        <v>166.2235031628396</v>
       </c>
       <c r="P13" t="n">
         <v>13.6334264630523</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.07812288092099</v>
+        <v>81.07812288092111</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35799,31 +35799,31 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932363175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.2728886276082</v>
+        <v>89.27288862760825</v>
       </c>
       <c r="K16" t="n">
-        <v>144.174868256401</v>
+        <v>144.1748682564011</v>
       </c>
       <c r="L16" t="n">
-        <v>178.9653377472167</v>
+        <v>178.9653377472168</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647755</v>
+        <v>57.25018916738773</v>
       </c>
       <c r="N16" t="n">
-        <v>162.5177775022025</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O16" t="n">
-        <v>166.2235031628394</v>
+        <v>166.2235031628395</v>
       </c>
       <c r="P16" t="n">
-        <v>13.6334264630523</v>
+        <v>141.4217421604401</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092099</v>
+        <v>61.95519213415307</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546156</v>
+        <v>12.22463163546146</v>
       </c>
       <c r="J26" t="n">
-        <v>170.8895739217705</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K26" t="n">
-        <v>536.6690454483162</v>
+        <v>249.9451117671064</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611277</v>
+        <v>319.6521314611276</v>
       </c>
       <c r="M26" t="n">
         <v>709.0618451218151</v>
       </c>
       <c r="N26" t="n">
-        <v>562.6359937732897</v>
+        <v>783.643507581518</v>
       </c>
       <c r="O26" t="n">
-        <v>239.9805624047391</v>
+        <v>355.1207157644251</v>
       </c>
       <c r="P26" t="n">
-        <v>285.1085154084677</v>
+        <v>285.1085154084676</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1199747555644</v>
+        <v>194.1199747555643</v>
       </c>
       <c r="R26" t="n">
-        <v>74.81014908339689</v>
+        <v>140.5265689563792</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>110.26096761263</v>
+        <v>76.62472628990653</v>
       </c>
       <c r="K28" t="n">
-        <v>238.270472263352</v>
+        <v>135.8478757080842</v>
       </c>
       <c r="L28" t="n">
-        <v>166.3171754095151</v>
+        <v>328.7918769510695</v>
       </c>
       <c r="M28" t="n">
-        <v>172.3903425270739</v>
+        <v>172.3903425270738</v>
       </c>
       <c r="N28" t="n">
-        <v>178.965955843631</v>
+        <v>178.9659558436309</v>
       </c>
       <c r="O28" t="n">
-        <v>91.5264307096754</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7735798227384</v>
+        <v>57.75025141526962</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.7729189209709</v>
+        <v>68.42996054321932</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546156</v>
+        <v>12.22463163546155</v>
       </c>
       <c r="J29" t="n">
         <v>170.8895739217705</v>
       </c>
       <c r="K29" t="n">
-        <v>574.0905243382713</v>
+        <v>458.9503709785851</v>
       </c>
       <c r="L29" t="n">
-        <v>204.5119781014415</v>
+        <v>319.6521314611276</v>
       </c>
       <c r="M29" t="n">
-        <v>374.6884649886687</v>
+        <v>373.9065450296012</v>
       </c>
       <c r="N29" t="n">
         <v>383.5486405241029</v>
       </c>
       <c r="O29" t="n">
-        <v>591.0289738803847</v>
+        <v>620.7807436674844</v>
       </c>
       <c r="P29" t="n">
-        <v>600.0496608682823</v>
+        <v>496.2696619568544</v>
       </c>
       <c r="Q29" t="n">
         <v>194.1199747555644</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>74.81014908339688</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.34564754281208</v>
+        <v>76.62472628990662</v>
       </c>
       <c r="K31" t="n">
-        <v>238.270472263352</v>
+        <v>131.5267059186994</v>
       </c>
       <c r="L31" t="n">
-        <v>51.17702204982899</v>
+        <v>166.3171754095151</v>
       </c>
       <c r="M31" t="n">
-        <v>172.3903425270739</v>
+        <v>57.25018916738773</v>
       </c>
       <c r="N31" t="n">
-        <v>178.965955843631</v>
+        <v>208.1618959962779</v>
       </c>
       <c r="O31" t="n">
-        <v>153.5753408251379</v>
+        <v>316.6170071910203</v>
       </c>
       <c r="P31" t="n">
         <v>263.7801431367795</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.7729189209709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.22463163546155</v>
       </c>
       <c r="J32" t="n">
-        <v>170.8895739217706</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9451117671066</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611277</v>
+        <v>710.3158505582861</v>
       </c>
       <c r="M32" t="n">
-        <v>784.2094129550532</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="N32" t="n">
-        <v>784.2094129550532</v>
+        <v>383.5486405241029</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1207157644253</v>
+        <v>355.1207157644252</v>
       </c>
       <c r="P32" t="n">
-        <v>247.0060894338466</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q32" t="n">
         <v>194.1199747555644</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>74.81014908339688</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>50.18550832515798</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>238.270472263352</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L34" t="n">
-        <v>51.17702204982899</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M34" t="n">
-        <v>350.9000034365196</v>
+        <v>337.240563668866</v>
       </c>
       <c r="N34" t="n">
-        <v>178.965955843631</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O34" t="n">
         <v>153.5753408251379</v>
       </c>
       <c r="P34" t="n">
-        <v>128.7735798227385</v>
+        <v>263.7801431367795</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.42996054321948</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>262.4841510957102</v>
+        <v>275.7069086144342</v>
       </c>
       <c r="K35" t="n">
         <v>134.8049584074204</v>
@@ -37327,13 +37327,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>52.216393759292</v>
       </c>
       <c r="S35" t="n">
-        <v>74.51388905283321</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.074737774818717</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117.0419663281253</v>
+        <v>18.03250898274808</v>
       </c>
       <c r="J38" t="n">
         <v>55.7494205620844</v>
@@ -37564,13 +37564,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R38" t="n">
-        <v>89.69276420550062</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S38" t="n">
-        <v>74.51388905283321</v>
+        <v>74.51388905283318</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.074737774818802</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>117.0419663281253</v>
+        <v>117.0419663281252</v>
       </c>
       <c r="J41" t="n">
         <v>55.7494205620844</v>
@@ -37801,13 +37801,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
-        <v>80.6180264306828</v>
+        <v>89.69276420550223</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283321</v>
+        <v>74.51388905283309</v>
       </c>
       <c r="T41" t="n">
-        <v>9.07473777481883</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.0419663281253</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>55.7494205620844</v>
@@ -38032,13 +38032,13 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P44" t="n">
-        <v>169.9683620487816</v>
+        <v>389.9258501011313</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.97982139587825</v>
+        <v>140.2709529299891</v>
       </c>
       <c r="R44" t="n">
-        <v>164.2066532583349</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
